--- a/scores.xlsx
+++ b/scores.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28627"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12EF8ABB-2C7C-4CFF-8CA7-1DE0BAEEAE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5B4DB47-AAC0-4D80-81AC-57F3C4B858FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,22 +33,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>student_id</t>
+    <t>matric_number</t>
   </si>
   <si>
     <t>course_code</t>
   </si>
   <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>STU001</t>
+    <t>ca_score</t>
+  </si>
+  <si>
+    <t>exam_score</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>CSC101</t>
-  </si>
-  <si>
-    <t>STU002</t>
   </si>
   <si>
     <t>CSC102</t>
@@ -58,13 +58,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,8 +93,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,49 +436,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>200001</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>200002</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>85</v>
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
